--- a/code/RTMR_Output/Abstracts/Abstracts_Regions_freq.xlsx
+++ b/code/RTMR_Output/Abstracts/Abstracts_Regions_freq.xlsx
@@ -831,7 +831,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>nigeria</t>
+          <t>niger</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -841,7 +841,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>niger</t>
+          <t>nigeria</t>
         </is>
       </c>
       <c r="B42" t="n">

--- a/code/RTMR_Output/Abstracts/Abstracts_Regions_freq.xlsx
+++ b/code/RTMR_Output/Abstracts/Abstracts_Regions_freq.xlsx
@@ -831,7 +831,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>niger</t>
+          <t>nigeria</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -841,7 +841,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>nigeria</t>
+          <t>niger</t>
         </is>
       </c>
       <c r="B42" t="n">
